--- a/dev_doc/konnekting_weatherstation_433MHz_interface.xlsx
+++ b/dev_doc/konnekting_weatherstation_433MHz_interface.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928B29B1-503A-4732-9EAF-02FDC95D857F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B8A680-9FF3-43D5-9116-F6F06D441DC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinksKnow-How" sheetId="1" r:id="rId1"/>
+    <sheet name="Produktdatenbank" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>http://www.tfd.hu/tfdhu/files/wsprotocol/auriol_protocol_v20.pdf</t>
   </si>
@@ -29,14 +30,110 @@
   </si>
   <si>
     <t>https://knx-user-forum.de/forum/projektforen/konnekting/1398577-konnekting-wetterstation-besser-konnekting-knx-interface-f%C3%BCr-ventus-wetterstationen</t>
+  </si>
+  <si>
+    <t>Kos</t>
+  </si>
+  <si>
+    <t>Windrichtung</t>
+  </si>
+  <si>
+    <t>Windgeschwindigkeit Durchschnitt</t>
+  </si>
+  <si>
+    <t>Windgeschwindigkeit Böen</t>
+  </si>
+  <si>
+    <t>Temperatur</t>
+  </si>
+  <si>
+    <t>Luftfeuchtigkeit</t>
+  </si>
+  <si>
+    <t>Taupunkt (?)</t>
+  </si>
+  <si>
+    <t>Sturmwarnung</t>
+  </si>
+  <si>
+    <t>Regenmenge Absolut</t>
+  </si>
+  <si>
+    <t>Regenmenge Zähler 1</t>
+  </si>
+  <si>
+    <t>Reset Regenmenge Zähler 1</t>
+  </si>
+  <si>
+    <t>Regenmenge Zähler 2</t>
+  </si>
+  <si>
+    <t>Reset Regenmenge Zähler 2</t>
+  </si>
+  <si>
+    <t>Regenmenge Zähler 3</t>
+  </si>
+  <si>
+    <t>Reset Regenmenge Zähler 3</t>
+  </si>
+  <si>
+    <t>Regenmenge Zähler 4</t>
+  </si>
+  <si>
+    <t>Reset Regenmenge Zähler 4</t>
+  </si>
+  <si>
+    <t>Regenmenge Zähler 5</t>
+  </si>
+  <si>
+    <t>Reset Regenmenge Zähler 5</t>
+  </si>
+  <si>
+    <t>DEBUG</t>
+  </si>
+  <si>
+    <t>RandomID W132</t>
+  </si>
+  <si>
+    <t>RandomID W174</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Sturmwarnung Schwelle Böen</t>
+  </si>
+  <si>
+    <t>Sturmwarnung Schwelle Avg</t>
+  </si>
+  <si>
+    <t>Temp Offset</t>
+  </si>
+  <si>
+    <t>Hum Offset</t>
+  </si>
+  <si>
+    <t>Filter ID W132</t>
+  </si>
+  <si>
+    <t>Filter ID W174</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -64,8 +161,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -348,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -372,4 +470,154 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6A5917-789A-4949-B407-75B74C270D72}">
+  <dimension ref="B2:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/dev_doc/konnekting_weatherstation_433MHz_interface.xlsx
+++ b/dev_doc/konnekting_weatherstation_433MHz_interface.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B8A680-9FF3-43D5-9116-F6F06D441DC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAE5FB1-8F92-42B5-A1C8-2961F4960114}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinksKnow-How" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="33">
   <si>
     <t>http://www.tfd.hu/tfdhu/files/wsprotocol/auriol_protocol_v20.pdf</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Filter ID W174</t>
+  </si>
+  <si>
+    <t>Luftfeuchtigkeit abs</t>
   </si>
 </sst>
 </file>
@@ -141,12 +144,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -161,9 +170,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -474,10 +484,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6A5917-789A-4949-B407-75B74C270D72}">
-  <dimension ref="B2:G33"/>
+  <dimension ref="B2:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +504,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G3" t="s">
@@ -502,7 +512,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G4" t="s">
@@ -510,12 +520,12 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G6" t="s">
@@ -523,96 +533,101 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/dev_doc/konnekting_weatherstation_433MHz_interface.xlsx
+++ b/dev_doc/konnekting_weatherstation_433MHz_interface.xlsx
@@ -3,25 +3,32 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAE5FB1-8F92-42B5-A1C8-2961F4960114}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A194B8D-C128-482C-ABD7-DF2BFB1F5F41}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LinksKnow-How" sheetId="1" r:id="rId1"/>
     <sheet name="Produktdatenbank" sheetId="2" r:id="rId2"/>
+    <sheet name="formulas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>http://www.tfd.hu/tfdhu/files/wsprotocol/auriol_protocol_v20.pdf</t>
   </si>
@@ -120,6 +127,12 @@
   </si>
   <si>
     <t>Luftfeuchtigkeit abs</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>rH</t>
   </si>
 </sst>
 </file>
@@ -486,7 +499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6A5917-789A-4949-B407-75B74C270D72}">
   <dimension ref="B2:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -635,4 +648,152 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04654B99-BB92-4863-9657-285E451046AF}">
+  <dimension ref="D5:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <f>(6.112 * EXP((17.67 * D6)/(D6+243.5)) * E6 * 2.1674) / (273.15 + D6)</f>
+        <v>8.639091242147579</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G15" si="0">(6.112 * EXP((17.67 * D7)/(D7+243.5)) * E7 * 2.1674) / (273.15 + D7)</f>
+        <v>8.639091242147579</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>8.639091242147579</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>55</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>10.674018583081379</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>55</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>10.674018583081379</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>55</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>10.674018583081379</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>12.14165952810229</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>40</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>12.14165952810229</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>40</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>12.14165952810229</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>51.182205075243701</v>
+      </c>
+      <c r="I15">
+        <f>G15*100</f>
+        <v>5118.2205075243701</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>